--- a/part_c/test_results.xlsx
+++ b/part_c/test_results.xlsx
@@ -479,33 +479,33 @@
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>54.61</v>
+      </c>
       <c r="C2">
-        <v>23.74</v>
-      </c>
-      <c r="E2">
-        <v>13.74</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>53.02</v>
+      </c>
       <c r="C3">
-        <v>17.52</v>
-      </c>
-      <c r="E3">
-        <v>11.88</v>
+        <v>14.07</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>47.46</v>
+      </c>
       <c r="C4">
-        <v>22.34</v>
-      </c>
-      <c r="E4">
-        <v>12.7</v>
+        <v>11.78</v>
       </c>
     </row>
   </sheetData>
@@ -560,33 +560,33 @@
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>38.43</v>
+      </c>
       <c r="C2">
-        <v>11.92</v>
-      </c>
-      <c r="E2">
-        <v>8.210000000000001</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>35.42</v>
+      </c>
       <c r="C3">
-        <v>11.54</v>
-      </c>
-      <c r="E3">
-        <v>8.67</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>28.9</v>
+      </c>
       <c r="C4">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="E4">
-        <v>13.65</v>
+        <v>10.11</v>
       </c>
     </row>
   </sheetData>
@@ -641,33 +641,33 @@
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>31.67</v>
+      </c>
       <c r="C2">
-        <v>9.31</v>
-      </c>
-      <c r="E2">
-        <v>11.18</v>
+        <v>14.47</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>28.63</v>
+      </c>
       <c r="C3">
-        <v>8.18</v>
-      </c>
-      <c r="E3">
-        <v>12.08</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>34.05</v>
+      </c>
       <c r="C4">
-        <v>9.48</v>
-      </c>
-      <c r="E4">
-        <v>12.98</v>
+        <v>16.3</v>
       </c>
     </row>
   </sheetData>

--- a/part_c/test_results.xlsx
+++ b/part_c/test_results.xlsx
@@ -480,10 +480,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54.61</v>
+        <v>45.54</v>
       </c>
       <c r="C2">
-        <v>14.78</v>
+        <v>17.04</v>
+      </c>
+      <c r="D2">
+        <v>-12.85</v>
+      </c>
+      <c r="E2">
+        <v>19.23</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -491,10 +497,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53.02</v>
+        <v>55.19</v>
       </c>
       <c r="C3">
-        <v>14.07</v>
+        <v>19.74</v>
+      </c>
+      <c r="D3">
+        <v>-25.26</v>
+      </c>
+      <c r="E3">
+        <v>12.67</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -502,10 +514,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>47.46</v>
+        <v>55.82</v>
       </c>
       <c r="C4">
-        <v>11.78</v>
+        <v>12.89</v>
+      </c>
+      <c r="D4">
+        <v>-17.07</v>
+      </c>
+      <c r="E4">
+        <v>12.68</v>
       </c>
     </row>
   </sheetData>
@@ -561,10 +579,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>38.43</v>
+        <v>49.48</v>
       </c>
       <c r="C2">
-        <v>13.97</v>
+        <v>17.96</v>
+      </c>
+      <c r="D2">
+        <v>-17.38</v>
+      </c>
+      <c r="E2">
+        <v>24.13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -572,10 +596,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>35.42</v>
+        <v>37.86</v>
       </c>
       <c r="C3">
-        <v>10.39</v>
+        <v>15.91</v>
+      </c>
+      <c r="D3">
+        <v>-27.26</v>
+      </c>
+      <c r="E3">
+        <v>14.89</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,10 +613,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.9</v>
+        <v>48.6</v>
       </c>
       <c r="C4">
-        <v>10.11</v>
+        <v>20.32</v>
+      </c>
+      <c r="D4">
+        <v>-20.47</v>
+      </c>
+      <c r="E4">
+        <v>15.34</v>
       </c>
     </row>
   </sheetData>
@@ -642,10 +678,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31.67</v>
+        <v>54.86</v>
       </c>
       <c r="C2">
-        <v>14.47</v>
+        <v>18.61</v>
+      </c>
+      <c r="D2">
+        <v>-17.94</v>
+      </c>
+      <c r="E2">
+        <v>12.32</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -653,10 +695,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.63</v>
+        <v>46.86</v>
       </c>
       <c r="C3">
-        <v>10.89</v>
+        <v>16.82</v>
+      </c>
+      <c r="D3">
+        <v>-25.21</v>
+      </c>
+      <c r="E3">
+        <v>12.91</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -664,10 +712,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>34.05</v>
+        <v>39.17</v>
       </c>
       <c r="C4">
-        <v>16.3</v>
+        <v>11.37</v>
+      </c>
+      <c r="D4">
+        <v>-16.58</v>
+      </c>
+      <c r="E4">
+        <v>16.57</v>
       </c>
     </row>
   </sheetData>

--- a/part_c/test_results.xlsx
+++ b/part_c/test_results.xlsx
@@ -434,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,16 +480,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45.54</v>
+        <v>60.05</v>
       </c>
       <c r="C2">
-        <v>17.04</v>
+        <v>28.46</v>
       </c>
       <c r="D2">
-        <v>-12.85</v>
+        <v>-11.28</v>
       </c>
       <c r="E2">
-        <v>19.23</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,16 +497,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55.19</v>
+        <v>38.86</v>
       </c>
       <c r="C3">
-        <v>19.74</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>-25.26</v>
+        <v>-12.01</v>
       </c>
       <c r="E3">
-        <v>12.67</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -514,16 +514,1682 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55.82</v>
+        <v>36.82</v>
       </c>
       <c r="C4">
-        <v>12.89</v>
+        <v>27.69</v>
       </c>
       <c r="D4">
-        <v>-17.07</v>
+        <v>-12.15</v>
       </c>
       <c r="E4">
-        <v>12.68</v>
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>42.35</v>
+      </c>
+      <c r="C5">
+        <v>22.95</v>
+      </c>
+      <c r="D5">
+        <v>-12.07</v>
+      </c>
+      <c r="E5">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>36.79</v>
+      </c>
+      <c r="C6">
+        <v>21.04</v>
+      </c>
+      <c r="D6">
+        <v>-11.42</v>
+      </c>
+      <c r="E6">
+        <v>8.039999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>35.15</v>
+      </c>
+      <c r="C7">
+        <v>23.34</v>
+      </c>
+      <c r="D7">
+        <v>-11.14</v>
+      </c>
+      <c r="E7">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>45.58</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>-12.47</v>
+      </c>
+      <c r="E8">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>37.49</v>
+      </c>
+      <c r="C9">
+        <v>20.99</v>
+      </c>
+      <c r="D9">
+        <v>-11.74</v>
+      </c>
+      <c r="E9">
+        <v>8.029999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>37.87</v>
+      </c>
+      <c r="C10">
+        <v>18.77</v>
+      </c>
+      <c r="D10">
+        <v>-13.82</v>
+      </c>
+      <c r="E10">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>66.45999999999999</v>
+      </c>
+      <c r="C11">
+        <v>19.22</v>
+      </c>
+      <c r="D11">
+        <v>-13.57</v>
+      </c>
+      <c r="E11">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>59.36</v>
+      </c>
+      <c r="C12">
+        <v>20.58</v>
+      </c>
+      <c r="D12">
+        <v>-12.64</v>
+      </c>
+      <c r="E12">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>69.38</v>
+      </c>
+      <c r="C13">
+        <v>25.42</v>
+      </c>
+      <c r="D13">
+        <v>-10.65</v>
+      </c>
+      <c r="E13">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>45.68</v>
+      </c>
+      <c r="C14">
+        <v>22.93</v>
+      </c>
+      <c r="D14">
+        <v>-10.67</v>
+      </c>
+      <c r="E14">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>28.02</v>
+      </c>
+      <c r="D15">
+        <v>-10.65</v>
+      </c>
+      <c r="E15">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>50.74</v>
+      </c>
+      <c r="C16">
+        <v>22.48</v>
+      </c>
+      <c r="D16">
+        <v>-10.48</v>
+      </c>
+      <c r="E16">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>41.31</v>
+      </c>
+      <c r="C17">
+        <v>21.79</v>
+      </c>
+      <c r="D17">
+        <v>-10.3</v>
+      </c>
+      <c r="E17">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>38.14</v>
+      </c>
+      <c r="C18">
+        <v>20.37</v>
+      </c>
+      <c r="D18">
+        <v>-11.66</v>
+      </c>
+      <c r="E18">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>42.87</v>
+      </c>
+      <c r="C19">
+        <v>24.8</v>
+      </c>
+      <c r="D19">
+        <v>-10.54</v>
+      </c>
+      <c r="E19">
+        <v>8.470000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>43.42</v>
+      </c>
+      <c r="C20">
+        <v>19.23</v>
+      </c>
+      <c r="D20">
+        <v>-10.8</v>
+      </c>
+      <c r="E20">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>40.68</v>
+      </c>
+      <c r="C21">
+        <v>26.62</v>
+      </c>
+      <c r="D21">
+        <v>-10.17</v>
+      </c>
+      <c r="E21">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>42.38</v>
+      </c>
+      <c r="C22">
+        <v>21.59</v>
+      </c>
+      <c r="D22">
+        <v>-10.41</v>
+      </c>
+      <c r="E22">
+        <v>8.390000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>46.92</v>
+      </c>
+      <c r="C23">
+        <v>24.58</v>
+      </c>
+      <c r="D23">
+        <v>-11.58</v>
+      </c>
+      <c r="E23">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>50.69</v>
+      </c>
+      <c r="C24">
+        <v>19.93</v>
+      </c>
+      <c r="D24">
+        <v>-10.33</v>
+      </c>
+      <c r="E24">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>49.7</v>
+      </c>
+      <c r="C25">
+        <v>19.33</v>
+      </c>
+      <c r="D25">
+        <v>-10.83</v>
+      </c>
+      <c r="E25">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>46.95</v>
+      </c>
+      <c r="C26">
+        <v>16.63</v>
+      </c>
+      <c r="D26">
+        <v>-17.03</v>
+      </c>
+      <c r="E26">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>47.8</v>
+      </c>
+      <c r="C27">
+        <v>18.23</v>
+      </c>
+      <c r="D27">
+        <v>-12.55</v>
+      </c>
+      <c r="E27">
+        <v>8.470000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>46.77</v>
+      </c>
+      <c r="C28">
+        <v>18.56</v>
+      </c>
+      <c r="D28">
+        <v>-12.07</v>
+      </c>
+      <c r="E28">
+        <v>8.130000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>45.02</v>
+      </c>
+      <c r="C29">
+        <v>23.21</v>
+      </c>
+      <c r="D29">
+        <v>-10.31</v>
+      </c>
+      <c r="E29">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>44.21</v>
+      </c>
+      <c r="C30">
+        <v>23.39</v>
+      </c>
+      <c r="D30">
+        <v>-10.41</v>
+      </c>
+      <c r="E30">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>48.68</v>
+      </c>
+      <c r="C31">
+        <v>20.44</v>
+      </c>
+      <c r="D31">
+        <v>-10.65</v>
+      </c>
+      <c r="E31">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>43.22</v>
+      </c>
+      <c r="C32">
+        <v>21.05</v>
+      </c>
+      <c r="D32">
+        <v>-10.62</v>
+      </c>
+      <c r="E32">
+        <v>8.119999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>48.67</v>
+      </c>
+      <c r="C33">
+        <v>25.31</v>
+      </c>
+      <c r="D33">
+        <v>-10.39</v>
+      </c>
+      <c r="E33">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>63.87</v>
+      </c>
+      <c r="C34">
+        <v>21.44</v>
+      </c>
+      <c r="D34">
+        <v>-10.14</v>
+      </c>
+      <c r="E34">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>51.47</v>
+      </c>
+      <c r="C35">
+        <v>19.94</v>
+      </c>
+      <c r="D35">
+        <v>-10.22</v>
+      </c>
+      <c r="E35">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>66.25</v>
+      </c>
+      <c r="C36">
+        <v>21.69</v>
+      </c>
+      <c r="D36">
+        <v>-10.67</v>
+      </c>
+      <c r="E36">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>54.37</v>
+      </c>
+      <c r="C37">
+        <v>21.19</v>
+      </c>
+      <c r="D37">
+        <v>-11.01</v>
+      </c>
+      <c r="E37">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>70.68000000000001</v>
+      </c>
+      <c r="C38">
+        <v>18.22</v>
+      </c>
+      <c r="D38">
+        <v>-11.03</v>
+      </c>
+      <c r="E38">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>62.88</v>
+      </c>
+      <c r="C39">
+        <v>18.59</v>
+      </c>
+      <c r="D39">
+        <v>-10.25</v>
+      </c>
+      <c r="E39">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>55.2</v>
+      </c>
+      <c r="C40">
+        <v>19.97</v>
+      </c>
+      <c r="D40">
+        <v>-10.13</v>
+      </c>
+      <c r="E40">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>40.89</v>
+      </c>
+      <c r="C41">
+        <v>24.42</v>
+      </c>
+      <c r="D41">
+        <v>-10.66</v>
+      </c>
+      <c r="E41">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>69.73</v>
+      </c>
+      <c r="C42">
+        <v>20.71</v>
+      </c>
+      <c r="D42">
+        <v>-10.87</v>
+      </c>
+      <c r="E42">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>46.63</v>
+      </c>
+      <c r="C43">
+        <v>24.94</v>
+      </c>
+      <c r="D43">
+        <v>-10.45</v>
+      </c>
+      <c r="E43">
+        <v>8.449999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>41.17</v>
+      </c>
+      <c r="C44">
+        <v>22.67</v>
+      </c>
+      <c r="D44">
+        <v>-10.37</v>
+      </c>
+      <c r="E44">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>38.7</v>
+      </c>
+      <c r="C45">
+        <v>20.89</v>
+      </c>
+      <c r="D45">
+        <v>-10.14</v>
+      </c>
+      <c r="E45">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>35.31</v>
+      </c>
+      <c r="C46">
+        <v>21.51</v>
+      </c>
+      <c r="D46">
+        <v>-11.39</v>
+      </c>
+      <c r="E46">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>36.41</v>
+      </c>
+      <c r="C47">
+        <v>17.84</v>
+      </c>
+      <c r="D47">
+        <v>-10.47</v>
+      </c>
+      <c r="E47">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>34.64</v>
+      </c>
+      <c r="C48">
+        <v>19.13</v>
+      </c>
+      <c r="D48">
+        <v>-10.47</v>
+      </c>
+      <c r="E48">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>41.42</v>
+      </c>
+      <c r="C49">
+        <v>17.79</v>
+      </c>
+      <c r="D49">
+        <v>-10.41</v>
+      </c>
+      <c r="E49">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>53.95</v>
+      </c>
+      <c r="C50">
+        <v>17.4</v>
+      </c>
+      <c r="D50">
+        <v>-10.39</v>
+      </c>
+      <c r="E50">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>56.11</v>
+      </c>
+      <c r="C51">
+        <v>20.54</v>
+      </c>
+      <c r="D51">
+        <v>-10.6</v>
+      </c>
+      <c r="E51">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>42.15</v>
+      </c>
+      <c r="C52">
+        <v>16.23</v>
+      </c>
+      <c r="D52">
+        <v>-10.08</v>
+      </c>
+      <c r="E52">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>40.13</v>
+      </c>
+      <c r="C53">
+        <v>25.62</v>
+      </c>
+      <c r="D53">
+        <v>-12.85</v>
+      </c>
+      <c r="E53">
+        <v>8.279999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>42.88</v>
+      </c>
+      <c r="C54">
+        <v>16.84</v>
+      </c>
+      <c r="D54">
+        <v>-10.54</v>
+      </c>
+      <c r="E54">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>48.53</v>
+      </c>
+      <c r="C55">
+        <v>23.32</v>
+      </c>
+      <c r="D55">
+        <v>-11.41</v>
+      </c>
+      <c r="E55">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>52.68</v>
+      </c>
+      <c r="C56">
+        <v>16.69</v>
+      </c>
+      <c r="D56">
+        <v>-10.81</v>
+      </c>
+      <c r="E56">
+        <v>8.140000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>38.9</v>
+      </c>
+      <c r="C57">
+        <v>20.93</v>
+      </c>
+      <c r="D57">
+        <v>-11.17</v>
+      </c>
+      <c r="E57">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>38.06</v>
+      </c>
+      <c r="C58">
+        <v>18.27</v>
+      </c>
+      <c r="D58">
+        <v>-10.49</v>
+      </c>
+      <c r="E58">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>179.34</v>
+      </c>
+      <c r="C59">
+        <v>17.98</v>
+      </c>
+      <c r="D59">
+        <v>-10.48</v>
+      </c>
+      <c r="E59">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>51.16</v>
+      </c>
+      <c r="C60">
+        <v>18.04</v>
+      </c>
+      <c r="D60">
+        <v>-10.62</v>
+      </c>
+      <c r="E60">
+        <v>8.279999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>47.84</v>
+      </c>
+      <c r="C61">
+        <v>16.12</v>
+      </c>
+      <c r="D61">
+        <v>-10.63</v>
+      </c>
+      <c r="E61">
+        <v>8.140000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>48.09</v>
+      </c>
+      <c r="C62">
+        <v>17.36</v>
+      </c>
+      <c r="D62">
+        <v>-10.41</v>
+      </c>
+      <c r="E62">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>49.61</v>
+      </c>
+      <c r="C63">
+        <v>20.13</v>
+      </c>
+      <c r="D63">
+        <v>-10.54</v>
+      </c>
+      <c r="E63">
+        <v>8.210000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>56.4</v>
+      </c>
+      <c r="C64">
+        <v>17.48</v>
+      </c>
+      <c r="D64">
+        <v>-10.43</v>
+      </c>
+      <c r="E64">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>64.70999999999999</v>
+      </c>
+      <c r="C65">
+        <v>17.35</v>
+      </c>
+      <c r="D65">
+        <v>-10.24</v>
+      </c>
+      <c r="E65">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="C66">
+        <v>16.63</v>
+      </c>
+      <c r="D66">
+        <v>-10.32</v>
+      </c>
+      <c r="E66">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>59.17</v>
+      </c>
+      <c r="C67">
+        <v>15.82</v>
+      </c>
+      <c r="D67">
+        <v>-10.75</v>
+      </c>
+      <c r="E67">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>46.76</v>
+      </c>
+      <c r="C68">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>-10.7</v>
+      </c>
+      <c r="E68">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>84.18000000000001</v>
+      </c>
+      <c r="C69">
+        <v>13.82</v>
+      </c>
+      <c r="D69">
+        <v>-10.45</v>
+      </c>
+      <c r="E69">
+        <v>8.460000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>50.96</v>
+      </c>
+      <c r="C70">
+        <v>19.01</v>
+      </c>
+      <c r="D70">
+        <v>-10.29</v>
+      </c>
+      <c r="E70">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>40.97</v>
+      </c>
+      <c r="C71">
+        <v>16.8</v>
+      </c>
+      <c r="D71">
+        <v>-10.48</v>
+      </c>
+      <c r="E71">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>38.44</v>
+      </c>
+      <c r="C72">
+        <v>19.96</v>
+      </c>
+      <c r="D72">
+        <v>-10.14</v>
+      </c>
+      <c r="E72">
+        <v>10.43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>38.75</v>
+      </c>
+      <c r="C73">
+        <v>13.56</v>
+      </c>
+      <c r="D73">
+        <v>-10.32</v>
+      </c>
+      <c r="E73">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>35.28</v>
+      </c>
+      <c r="C74">
+        <v>15.56</v>
+      </c>
+      <c r="D74">
+        <v>-10.67</v>
+      </c>
+      <c r="E74">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>33.72</v>
+      </c>
+      <c r="C75">
+        <v>12.71</v>
+      </c>
+      <c r="D75">
+        <v>-10.69</v>
+      </c>
+      <c r="E75">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>36.61</v>
+      </c>
+      <c r="C76">
+        <v>16.08</v>
+      </c>
+      <c r="D76">
+        <v>-10.32</v>
+      </c>
+      <c r="E76">
+        <v>8.449999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>38.63</v>
+      </c>
+      <c r="C77">
+        <v>13.29</v>
+      </c>
+      <c r="D77">
+        <v>-10.81</v>
+      </c>
+      <c r="E77">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>33.51</v>
+      </c>
+      <c r="C78">
+        <v>12.01</v>
+      </c>
+      <c r="D78">
+        <v>-11</v>
+      </c>
+      <c r="E78">
+        <v>8.279999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>30.52</v>
+      </c>
+      <c r="C79">
+        <v>12.69</v>
+      </c>
+      <c r="D79">
+        <v>-10.52</v>
+      </c>
+      <c r="E79">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>31.32</v>
+      </c>
+      <c r="C80">
+        <v>13.53</v>
+      </c>
+      <c r="D80">
+        <v>-10.69</v>
+      </c>
+      <c r="E80">
+        <v>9.470000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>29.95</v>
+      </c>
+      <c r="C81">
+        <v>11.02</v>
+      </c>
+      <c r="D81">
+        <v>-11.29</v>
+      </c>
+      <c r="E81">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>29.36</v>
+      </c>
+      <c r="C82">
+        <v>12.85</v>
+      </c>
+      <c r="D82">
+        <v>-10.85</v>
+      </c>
+      <c r="E82">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>37.86</v>
+      </c>
+      <c r="C83">
+        <v>13.39</v>
+      </c>
+      <c r="D83">
+        <v>-10.46</v>
+      </c>
+      <c r="E83">
+        <v>9.529999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>30.37</v>
+      </c>
+      <c r="C84">
+        <v>12.93</v>
+      </c>
+      <c r="D84">
+        <v>-10.32</v>
+      </c>
+      <c r="E84">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>36.28</v>
+      </c>
+      <c r="C85">
+        <v>14.78</v>
+      </c>
+      <c r="D85">
+        <v>-10.22</v>
+      </c>
+      <c r="E85">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>32.57</v>
+      </c>
+      <c r="C86">
+        <v>12.95</v>
+      </c>
+      <c r="D86">
+        <v>-10.31</v>
+      </c>
+      <c r="E86">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>39.51</v>
+      </c>
+      <c r="C87">
+        <v>13.72</v>
+      </c>
+      <c r="D87">
+        <v>-11.03</v>
+      </c>
+      <c r="E87">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>34.92</v>
+      </c>
+      <c r="C88">
+        <v>13.24</v>
+      </c>
+      <c r="D88">
+        <v>-10.74</v>
+      </c>
+      <c r="E88">
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>36.96</v>
+      </c>
+      <c r="C89">
+        <v>12.09</v>
+      </c>
+      <c r="D89">
+        <v>-12.52</v>
+      </c>
+      <c r="E89">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>36.8</v>
+      </c>
+      <c r="C90">
+        <v>13.01</v>
+      </c>
+      <c r="D90">
+        <v>-10.33</v>
+      </c>
+      <c r="E90">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>45.29</v>
+      </c>
+      <c r="C91">
+        <v>15.08</v>
+      </c>
+      <c r="D91">
+        <v>-10.45</v>
+      </c>
+      <c r="E91">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>38.5</v>
+      </c>
+      <c r="C92">
+        <v>11.98</v>
+      </c>
+      <c r="D92">
+        <v>-10.21</v>
+      </c>
+      <c r="E92">
+        <v>8.119999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>42.56</v>
+      </c>
+      <c r="C93">
+        <v>12.51</v>
+      </c>
+      <c r="D93">
+        <v>-11.47</v>
+      </c>
+      <c r="E93">
+        <v>10.98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>41.96</v>
+      </c>
+      <c r="C94">
+        <v>12.02</v>
+      </c>
+      <c r="D94">
+        <v>-10.09</v>
+      </c>
+      <c r="E94">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>40.79</v>
+      </c>
+      <c r="C95">
+        <v>13.02</v>
+      </c>
+      <c r="D95">
+        <v>-10.67</v>
+      </c>
+      <c r="E95">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>36.54</v>
+      </c>
+      <c r="C96">
+        <v>11.93</v>
+      </c>
+      <c r="D96">
+        <v>-11.26</v>
+      </c>
+      <c r="E96">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>44.82</v>
+      </c>
+      <c r="C97">
+        <v>11.75</v>
+      </c>
+      <c r="D97">
+        <v>-10.98</v>
+      </c>
+      <c r="E97">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>47.56</v>
+      </c>
+      <c r="C98">
+        <v>29.28</v>
+      </c>
+      <c r="D98">
+        <v>-11.55</v>
+      </c>
+      <c r="E98">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>49.51</v>
+      </c>
+      <c r="C99">
+        <v>11.24</v>
+      </c>
+      <c r="D99">
+        <v>-10.91</v>
+      </c>
+      <c r="E99">
+        <v>8.130000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>37.46</v>
+      </c>
+      <c r="C100">
+        <v>10.17</v>
+      </c>
+      <c r="D100">
+        <v>-12.26</v>
+      </c>
+      <c r="E100">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>34.18</v>
+      </c>
+      <c r="C101">
+        <v>10.48</v>
+      </c>
+      <c r="D101">
+        <v>-10.52</v>
+      </c>
+      <c r="E101">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>32.41</v>
+      </c>
+      <c r="C102">
+        <v>11.46</v>
+      </c>
+      <c r="D102">
+        <v>-11.4</v>
+      </c>
+      <c r="E102">
+        <v>9.119999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +2199,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -579,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49.48</v>
+        <v>39.76</v>
       </c>
       <c r="C2">
-        <v>17.96</v>
+        <v>21.05</v>
       </c>
       <c r="D2">
-        <v>-17.38</v>
+        <v>-10.51</v>
       </c>
       <c r="E2">
-        <v>24.13</v>
+        <v>9.609999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -596,16 +2262,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>37.86</v>
+        <v>40.34</v>
       </c>
       <c r="C3">
-        <v>15.91</v>
+        <v>18.48</v>
       </c>
       <c r="D3">
-        <v>-27.26</v>
+        <v>-10.1</v>
       </c>
       <c r="E3">
-        <v>14.89</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -613,16 +2279,1682 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>48.6</v>
+        <v>59.41</v>
       </c>
       <c r="C4">
-        <v>20.32</v>
+        <v>16.73</v>
       </c>
       <c r="D4">
-        <v>-20.47</v>
+        <v>-8.99</v>
       </c>
       <c r="E4">
-        <v>15.34</v>
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>60.89</v>
+      </c>
+      <c r="C5">
+        <v>20.82</v>
+      </c>
+      <c r="D5">
+        <v>-11.09</v>
+      </c>
+      <c r="E5">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>46.8</v>
+      </c>
+      <c r="C6">
+        <v>23.4</v>
+      </c>
+      <c r="D6">
+        <v>-12.37</v>
+      </c>
+      <c r="E6">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>42.19</v>
+      </c>
+      <c r="C7">
+        <v>26.43</v>
+      </c>
+      <c r="D7">
+        <v>-10.48</v>
+      </c>
+      <c r="E7">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>39.03</v>
+      </c>
+      <c r="C8">
+        <v>15.3</v>
+      </c>
+      <c r="D8">
+        <v>-10.89</v>
+      </c>
+      <c r="E8">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>32.62</v>
+      </c>
+      <c r="C9">
+        <v>20.27</v>
+      </c>
+      <c r="D9">
+        <v>-9.68</v>
+      </c>
+      <c r="E9">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>37.53</v>
+      </c>
+      <c r="C10">
+        <v>21.8</v>
+      </c>
+      <c r="D10">
+        <v>-9.57</v>
+      </c>
+      <c r="E10">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>31.27</v>
+      </c>
+      <c r="C11">
+        <v>18.58</v>
+      </c>
+      <c r="D11">
+        <v>-12.12</v>
+      </c>
+      <c r="E11">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>25.7</v>
+      </c>
+      <c r="C12">
+        <v>19.1</v>
+      </c>
+      <c r="D12">
+        <v>-11.38</v>
+      </c>
+      <c r="E12">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>29.09</v>
+      </c>
+      <c r="C13">
+        <v>17.39</v>
+      </c>
+      <c r="D13">
+        <v>-16.33</v>
+      </c>
+      <c r="E13">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>28.43</v>
+      </c>
+      <c r="C14">
+        <v>23.09</v>
+      </c>
+      <c r="D14">
+        <v>-10.9</v>
+      </c>
+      <c r="E14">
+        <v>9.619999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>25.18</v>
+      </c>
+      <c r="C15">
+        <v>27.56</v>
+      </c>
+      <c r="D15">
+        <v>-12.06</v>
+      </c>
+      <c r="E15">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>29.19</v>
+      </c>
+      <c r="C16">
+        <v>19.61</v>
+      </c>
+      <c r="D16">
+        <v>-11.83</v>
+      </c>
+      <c r="E16">
+        <v>9.529999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>27.42</v>
+      </c>
+      <c r="C17">
+        <v>21.39</v>
+      </c>
+      <c r="D17">
+        <v>-11.2</v>
+      </c>
+      <c r="E17">
+        <v>9.380000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>39.93</v>
+      </c>
+      <c r="C18">
+        <v>21.04</v>
+      </c>
+      <c r="D18">
+        <v>-11.59</v>
+      </c>
+      <c r="E18">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>26.52</v>
+      </c>
+      <c r="C19">
+        <v>17.94</v>
+      </c>
+      <c r="D19">
+        <v>-15.35</v>
+      </c>
+      <c r="E19">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>26.17</v>
+      </c>
+      <c r="C20">
+        <v>17.46</v>
+      </c>
+      <c r="D20">
+        <v>-11.5</v>
+      </c>
+      <c r="E20">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>34.44</v>
+      </c>
+      <c r="C21">
+        <v>16.83</v>
+      </c>
+      <c r="D21">
+        <v>-10.78</v>
+      </c>
+      <c r="E21">
+        <v>9.109999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>26.96</v>
+      </c>
+      <c r="C22">
+        <v>18.53</v>
+      </c>
+      <c r="D22">
+        <v>-10.66</v>
+      </c>
+      <c r="E22">
+        <v>9.710000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>54.84</v>
+      </c>
+      <c r="C23">
+        <v>23.16</v>
+      </c>
+      <c r="D23">
+        <v>-10.89</v>
+      </c>
+      <c r="E23">
+        <v>9.640000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>30.76</v>
+      </c>
+      <c r="C24">
+        <v>25.33</v>
+      </c>
+      <c r="D24">
+        <v>-9.6</v>
+      </c>
+      <c r="E24">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>28.3</v>
+      </c>
+      <c r="C25">
+        <v>20.35</v>
+      </c>
+      <c r="D25">
+        <v>-9.67</v>
+      </c>
+      <c r="E25">
+        <v>9.720000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>28.6</v>
+      </c>
+      <c r="C26">
+        <v>20.05</v>
+      </c>
+      <c r="D26">
+        <v>-9.210000000000001</v>
+      </c>
+      <c r="E26">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>26.92</v>
+      </c>
+      <c r="C27">
+        <v>20.21</v>
+      </c>
+      <c r="D27">
+        <v>-8.630000000000001</v>
+      </c>
+      <c r="E27">
+        <v>9.220000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>28.96</v>
+      </c>
+      <c r="C28">
+        <v>17.6</v>
+      </c>
+      <c r="D28">
+        <v>-8.74</v>
+      </c>
+      <c r="E28">
+        <v>9.119999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>27.64</v>
+      </c>
+      <c r="C29">
+        <v>20.74</v>
+      </c>
+      <c r="D29">
+        <v>-8.73</v>
+      </c>
+      <c r="E29">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>31.17</v>
+      </c>
+      <c r="C30">
+        <v>13.9</v>
+      </c>
+      <c r="D30">
+        <v>-8.710000000000001</v>
+      </c>
+      <c r="E30">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>25.84</v>
+      </c>
+      <c r="C31">
+        <v>19.04</v>
+      </c>
+      <c r="D31">
+        <v>-8.130000000000001</v>
+      </c>
+      <c r="E31">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>47.62</v>
+      </c>
+      <c r="C32">
+        <v>19.29</v>
+      </c>
+      <c r="D32">
+        <v>-7.82</v>
+      </c>
+      <c r="E32">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>37.85</v>
+      </c>
+      <c r="C33">
+        <v>21.5</v>
+      </c>
+      <c r="D33">
+        <v>-7.74</v>
+      </c>
+      <c r="E33">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>28.52</v>
+      </c>
+      <c r="C34">
+        <v>21.4</v>
+      </c>
+      <c r="D34">
+        <v>-7.92</v>
+      </c>
+      <c r="E34">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>37.41</v>
+      </c>
+      <c r="C35">
+        <v>20.12</v>
+      </c>
+      <c r="D35">
+        <v>-8.07</v>
+      </c>
+      <c r="E35">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>27.54</v>
+      </c>
+      <c r="C36">
+        <v>17.47</v>
+      </c>
+      <c r="D36">
+        <v>-8.51</v>
+      </c>
+      <c r="E36">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>29.09</v>
+      </c>
+      <c r="C37">
+        <v>19.68</v>
+      </c>
+      <c r="D37">
+        <v>-8.1</v>
+      </c>
+      <c r="E37">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>28.92</v>
+      </c>
+      <c r="C38">
+        <v>21.01</v>
+      </c>
+      <c r="D38">
+        <v>-8.07</v>
+      </c>
+      <c r="E38">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>29.93</v>
+      </c>
+      <c r="C39">
+        <v>19.07</v>
+      </c>
+      <c r="D39">
+        <v>-8</v>
+      </c>
+      <c r="E39">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>33.19</v>
+      </c>
+      <c r="C40">
+        <v>18.81</v>
+      </c>
+      <c r="D40">
+        <v>-7.9</v>
+      </c>
+      <c r="E40">
+        <v>9.529999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>32.45</v>
+      </c>
+      <c r="C41">
+        <v>26.35</v>
+      </c>
+      <c r="D41">
+        <v>-7.81</v>
+      </c>
+      <c r="E41">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>27.49</v>
+      </c>
+      <c r="C42">
+        <v>20.73</v>
+      </c>
+      <c r="D42">
+        <v>-8.19</v>
+      </c>
+      <c r="E42">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>29.22</v>
+      </c>
+      <c r="C43">
+        <v>20.83</v>
+      </c>
+      <c r="D43">
+        <v>-8.460000000000001</v>
+      </c>
+      <c r="E43">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>33.09</v>
+      </c>
+      <c r="C44">
+        <v>19.47</v>
+      </c>
+      <c r="D44">
+        <v>-8.06</v>
+      </c>
+      <c r="E44">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>29.47</v>
+      </c>
+      <c r="C45">
+        <v>22.46</v>
+      </c>
+      <c r="D45">
+        <v>-8</v>
+      </c>
+      <c r="E45">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>27.33</v>
+      </c>
+      <c r="C46">
+        <v>22.81</v>
+      </c>
+      <c r="D46">
+        <v>-8.68</v>
+      </c>
+      <c r="E46">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>30.87</v>
+      </c>
+      <c r="C47">
+        <v>23.65</v>
+      </c>
+      <c r="D47">
+        <v>-9.640000000000001</v>
+      </c>
+      <c r="E47">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>35.49</v>
+      </c>
+      <c r="C48">
+        <v>19.04</v>
+      </c>
+      <c r="D48">
+        <v>-7.84</v>
+      </c>
+      <c r="E48">
+        <v>9.460000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>28.71</v>
+      </c>
+      <c r="C49">
+        <v>20.11</v>
+      </c>
+      <c r="D49">
+        <v>-7.82</v>
+      </c>
+      <c r="E49">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>27.67</v>
+      </c>
+      <c r="C50">
+        <v>21.5</v>
+      </c>
+      <c r="D50">
+        <v>-8.17</v>
+      </c>
+      <c r="E50">
+        <v>9.539999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>33.27</v>
+      </c>
+      <c r="C51">
+        <v>24.46</v>
+      </c>
+      <c r="D51">
+        <v>-7.75</v>
+      </c>
+      <c r="E51">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>30.84</v>
+      </c>
+      <c r="C52">
+        <v>17.69</v>
+      </c>
+      <c r="D52">
+        <v>-7.85</v>
+      </c>
+      <c r="E52">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>27.94</v>
+      </c>
+      <c r="C53">
+        <v>20.44</v>
+      </c>
+      <c r="D53">
+        <v>-8.109999999999999</v>
+      </c>
+      <c r="E53">
+        <v>9.369999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>25.12</v>
+      </c>
+      <c r="C54">
+        <v>21.79</v>
+      </c>
+      <c r="D54">
+        <v>-7.97</v>
+      </c>
+      <c r="E54">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>25.51</v>
+      </c>
+      <c r="C55">
+        <v>18.9</v>
+      </c>
+      <c r="D55">
+        <v>-11</v>
+      </c>
+      <c r="E55">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>29.84</v>
+      </c>
+      <c r="C56">
+        <v>24.22</v>
+      </c>
+      <c r="D56">
+        <v>-10.65</v>
+      </c>
+      <c r="E56">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>41.36</v>
+      </c>
+      <c r="C57">
+        <v>20.08</v>
+      </c>
+      <c r="D57">
+        <v>-10.71</v>
+      </c>
+      <c r="E57">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>25.99</v>
+      </c>
+      <c r="C58">
+        <v>22.33</v>
+      </c>
+      <c r="D58">
+        <v>-9.970000000000001</v>
+      </c>
+      <c r="E58">
+        <v>9.640000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>29.54</v>
+      </c>
+      <c r="C59">
+        <v>19.13</v>
+      </c>
+      <c r="D59">
+        <v>-10.45</v>
+      </c>
+      <c r="E59">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>30.69</v>
+      </c>
+      <c r="C60">
+        <v>21.22</v>
+      </c>
+      <c r="D60">
+        <v>-10.26</v>
+      </c>
+      <c r="E60">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>32.11</v>
+      </c>
+      <c r="C61">
+        <v>24.39</v>
+      </c>
+      <c r="D61">
+        <v>-10.32</v>
+      </c>
+      <c r="E61">
+        <v>9.039999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>30.72</v>
+      </c>
+      <c r="C62">
+        <v>21.43</v>
+      </c>
+      <c r="D62">
+        <v>-11.45</v>
+      </c>
+      <c r="E62">
+        <v>9.529999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>37.11</v>
+      </c>
+      <c r="C63">
+        <v>21.89</v>
+      </c>
+      <c r="D63">
+        <v>-10.08</v>
+      </c>
+      <c r="E63">
+        <v>10.03</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>28.48</v>
+      </c>
+      <c r="C64">
+        <v>84.48999999999999</v>
+      </c>
+      <c r="D64">
+        <v>-10.27</v>
+      </c>
+      <c r="E64">
+        <v>9.609999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>39.48</v>
+      </c>
+      <c r="C65">
+        <v>23.84</v>
+      </c>
+      <c r="D65">
+        <v>-10.52</v>
+      </c>
+      <c r="E65">
+        <v>9.640000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>25.97</v>
+      </c>
+      <c r="C66">
+        <v>26.12</v>
+      </c>
+      <c r="D66">
+        <v>-9.890000000000001</v>
+      </c>
+      <c r="E66">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>30.11</v>
+      </c>
+      <c r="C67">
+        <v>20.67</v>
+      </c>
+      <c r="D67">
+        <v>-10.59</v>
+      </c>
+      <c r="E67">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>26.85</v>
+      </c>
+      <c r="C68">
+        <v>20.44</v>
+      </c>
+      <c r="D68">
+        <v>-10.15</v>
+      </c>
+      <c r="E68">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>31.02</v>
+      </c>
+      <c r="C69">
+        <v>24.84</v>
+      </c>
+      <c r="D69">
+        <v>-10.28</v>
+      </c>
+      <c r="E69">
+        <v>9.380000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>29.17</v>
+      </c>
+      <c r="C70">
+        <v>27.19</v>
+      </c>
+      <c r="D70">
+        <v>-10.59</v>
+      </c>
+      <c r="E70">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>29.84</v>
+      </c>
+      <c r="C71">
+        <v>19.94</v>
+      </c>
+      <c r="D71">
+        <v>-9.93</v>
+      </c>
+      <c r="E71">
+        <v>9.220000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>41.12</v>
+      </c>
+      <c r="C72">
+        <v>30.51</v>
+      </c>
+      <c r="D72">
+        <v>-10.53</v>
+      </c>
+      <c r="E72">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>30.12</v>
+      </c>
+      <c r="C73">
+        <v>30.97</v>
+      </c>
+      <c r="D73">
+        <v>-10.33</v>
+      </c>
+      <c r="E73">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>25.48</v>
+      </c>
+      <c r="C74">
+        <v>21.04</v>
+      </c>
+      <c r="D74">
+        <v>-10.61</v>
+      </c>
+      <c r="E74">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>39.91</v>
+      </c>
+      <c r="C75">
+        <v>23.03</v>
+      </c>
+      <c r="D75">
+        <v>-11.86</v>
+      </c>
+      <c r="E75">
+        <v>9.789999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>41.48</v>
+      </c>
+      <c r="C76">
+        <v>23.47</v>
+      </c>
+      <c r="D76">
+        <v>-10.52</v>
+      </c>
+      <c r="E76">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>29.35</v>
+      </c>
+      <c r="C77">
+        <v>30.18</v>
+      </c>
+      <c r="D77">
+        <v>-10.29</v>
+      </c>
+      <c r="E77">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>25.34</v>
+      </c>
+      <c r="C78">
+        <v>23.01</v>
+      </c>
+      <c r="D78">
+        <v>-10.29</v>
+      </c>
+      <c r="E78">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>22.87</v>
+      </c>
+      <c r="C79">
+        <v>21.87</v>
+      </c>
+      <c r="D79">
+        <v>-10.21</v>
+      </c>
+      <c r="E79">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>29.78</v>
+      </c>
+      <c r="C80">
+        <v>23.69</v>
+      </c>
+      <c r="D80">
+        <v>-10.66</v>
+      </c>
+      <c r="E80">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>26.3</v>
+      </c>
+      <c r="C81">
+        <v>23.33</v>
+      </c>
+      <c r="D81">
+        <v>-10.54</v>
+      </c>
+      <c r="E81">
+        <v>9.630000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>29.6</v>
+      </c>
+      <c r="C82">
+        <v>22.82</v>
+      </c>
+      <c r="D82">
+        <v>-10.24</v>
+      </c>
+      <c r="E82">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>27.48</v>
+      </c>
+      <c r="C83">
+        <v>25.08</v>
+      </c>
+      <c r="D83">
+        <v>-10.32</v>
+      </c>
+      <c r="E83">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>28.01</v>
+      </c>
+      <c r="C84">
+        <v>26.42</v>
+      </c>
+      <c r="D84">
+        <v>-11.65</v>
+      </c>
+      <c r="E84">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>35.05</v>
+      </c>
+      <c r="C85">
+        <v>21.72</v>
+      </c>
+      <c r="D85">
+        <v>-10.6</v>
+      </c>
+      <c r="E85">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>34.3</v>
+      </c>
+      <c r="C86">
+        <v>27.26</v>
+      </c>
+      <c r="D86">
+        <v>-10.74</v>
+      </c>
+      <c r="E86">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>26.43</v>
+      </c>
+      <c r="C87">
+        <v>23.76</v>
+      </c>
+      <c r="D87">
+        <v>-10.27</v>
+      </c>
+      <c r="E87">
+        <v>9.609999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>29.25</v>
+      </c>
+      <c r="C88">
+        <v>22.02</v>
+      </c>
+      <c r="D88">
+        <v>-10.33</v>
+      </c>
+      <c r="E88">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>29.25</v>
+      </c>
+      <c r="C89">
+        <v>22.78</v>
+      </c>
+      <c r="D89">
+        <v>-10.57</v>
+      </c>
+      <c r="E89">
+        <v>9.460000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>28.35</v>
+      </c>
+      <c r="C90">
+        <v>23.87</v>
+      </c>
+      <c r="D90">
+        <v>-10.26</v>
+      </c>
+      <c r="E90">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>28.88</v>
+      </c>
+      <c r="C91">
+        <v>21.17</v>
+      </c>
+      <c r="D91">
+        <v>-10.1</v>
+      </c>
+      <c r="E91">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>31.21</v>
+      </c>
+      <c r="C92">
+        <v>21.03</v>
+      </c>
+      <c r="D92">
+        <v>-10.36</v>
+      </c>
+      <c r="E92">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>33.47</v>
+      </c>
+      <c r="C93">
+        <v>21.36</v>
+      </c>
+      <c r="D93">
+        <v>-10.52</v>
+      </c>
+      <c r="E93">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>35.38</v>
+      </c>
+      <c r="C94">
+        <v>27.85</v>
+      </c>
+      <c r="D94">
+        <v>-10.96</v>
+      </c>
+      <c r="E94">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>106.12</v>
+      </c>
+      <c r="C95">
+        <v>26.82</v>
+      </c>
+      <c r="D95">
+        <v>-10.87</v>
+      </c>
+      <c r="E95">
+        <v>9.539999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>24.79</v>
+      </c>
+      <c r="C96">
+        <v>23.64</v>
+      </c>
+      <c r="D96">
+        <v>-10.61</v>
+      </c>
+      <c r="E96">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>24.63</v>
+      </c>
+      <c r="C97">
+        <v>30.21</v>
+      </c>
+      <c r="D97">
+        <v>-11.16</v>
+      </c>
+      <c r="E97">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>25.14</v>
+      </c>
+      <c r="C98">
+        <v>33.09</v>
+      </c>
+      <c r="D98">
+        <v>-11.39</v>
+      </c>
+      <c r="E98">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>43.8</v>
+      </c>
+      <c r="C99">
+        <v>36.04</v>
+      </c>
+      <c r="D99">
+        <v>-11.1</v>
+      </c>
+      <c r="E99">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>30.39</v>
+      </c>
+      <c r="C100">
+        <v>35.93</v>
+      </c>
+      <c r="D100">
+        <v>-10.03</v>
+      </c>
+      <c r="E100">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>39.96</v>
+      </c>
+      <c r="C101">
+        <v>22.46</v>
+      </c>
+      <c r="D101">
+        <v>-10.41</v>
+      </c>
+      <c r="E101">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>27.05</v>
+      </c>
+      <c r="C102">
+        <v>24.18</v>
+      </c>
+      <c r="D102">
+        <v>-11.17</v>
+      </c>
+      <c r="E102">
+        <v>10.18</v>
       </c>
     </row>
   </sheetData>
@@ -632,7 +3964,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -678,16 +4010,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54.86</v>
+        <v>40.11</v>
       </c>
       <c r="C2">
-        <v>18.61</v>
+        <v>29.65</v>
       </c>
       <c r="D2">
-        <v>-17.94</v>
+        <v>-10.72</v>
       </c>
       <c r="E2">
-        <v>12.32</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -695,16 +4027,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>46.86</v>
+        <v>40.2</v>
       </c>
       <c r="C3">
-        <v>16.82</v>
+        <v>24.7</v>
       </c>
       <c r="D3">
-        <v>-25.21</v>
+        <v>-10.42</v>
       </c>
       <c r="E3">
-        <v>12.91</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -712,16 +4044,1682 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>39.17</v>
+        <v>37.8</v>
       </c>
       <c r="C4">
-        <v>11.37</v>
+        <v>23.06</v>
       </c>
       <c r="D4">
-        <v>-16.58</v>
+        <v>-10.68</v>
       </c>
       <c r="E4">
-        <v>16.57</v>
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>41.97</v>
+      </c>
+      <c r="C5">
+        <v>26.79</v>
+      </c>
+      <c r="D5">
+        <v>-11.59</v>
+      </c>
+      <c r="E5">
+        <v>9.390000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>41.18</v>
+      </c>
+      <c r="C6">
+        <v>21.86</v>
+      </c>
+      <c r="D6">
+        <v>-11.45</v>
+      </c>
+      <c r="E6">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>46.81</v>
+      </c>
+      <c r="C7">
+        <v>22.46</v>
+      </c>
+      <c r="D7">
+        <v>-11.08</v>
+      </c>
+      <c r="E7">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>55.33</v>
+      </c>
+      <c r="C8">
+        <v>21.19</v>
+      </c>
+      <c r="D8">
+        <v>-10.47</v>
+      </c>
+      <c r="E8">
+        <v>9.859999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>53.94</v>
+      </c>
+      <c r="C9">
+        <v>21.12</v>
+      </c>
+      <c r="D9">
+        <v>-11.28</v>
+      </c>
+      <c r="E9">
+        <v>9.460000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>51.43</v>
+      </c>
+      <c r="C10">
+        <v>20.14</v>
+      </c>
+      <c r="D10">
+        <v>-10.75</v>
+      </c>
+      <c r="E10">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>48.32</v>
+      </c>
+      <c r="C11">
+        <v>19.24</v>
+      </c>
+      <c r="D11">
+        <v>-10.57</v>
+      </c>
+      <c r="E11">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>89.48</v>
+      </c>
+      <c r="C12">
+        <v>18.07</v>
+      </c>
+      <c r="D12">
+        <v>-10.78</v>
+      </c>
+      <c r="E12">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>42.08</v>
+      </c>
+      <c r="C13">
+        <v>14.46</v>
+      </c>
+      <c r="D13">
+        <v>-12.43</v>
+      </c>
+      <c r="E13">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>42.95</v>
+      </c>
+      <c r="C14">
+        <v>27.72</v>
+      </c>
+      <c r="D14">
+        <v>-10.81</v>
+      </c>
+      <c r="E14">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>42.55</v>
+      </c>
+      <c r="C15">
+        <v>24.3</v>
+      </c>
+      <c r="D15">
+        <v>-10.25</v>
+      </c>
+      <c r="E15">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>49.95</v>
+      </c>
+      <c r="C16">
+        <v>20.16</v>
+      </c>
+      <c r="D16">
+        <v>-10.28</v>
+      </c>
+      <c r="E16">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>42.81</v>
+      </c>
+      <c r="C17">
+        <v>25.29</v>
+      </c>
+      <c r="D17">
+        <v>-10.12</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>35.49</v>
+      </c>
+      <c r="C18">
+        <v>22.12</v>
+      </c>
+      <c r="D18">
+        <v>-10.95</v>
+      </c>
+      <c r="E18">
+        <v>9.119999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>34.18</v>
+      </c>
+      <c r="C19">
+        <v>22.57</v>
+      </c>
+      <c r="D19">
+        <v>-10.6</v>
+      </c>
+      <c r="E19">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>36.45</v>
+      </c>
+      <c r="C20">
+        <v>22.64</v>
+      </c>
+      <c r="D20">
+        <v>-10.47</v>
+      </c>
+      <c r="E20">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>22.53</v>
+      </c>
+      <c r="D21">
+        <v>-13.48</v>
+      </c>
+      <c r="E21">
+        <v>9.470000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>58.75</v>
+      </c>
+      <c r="C22">
+        <v>35.55</v>
+      </c>
+      <c r="D22">
+        <v>-12.45</v>
+      </c>
+      <c r="E22">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>41.91</v>
+      </c>
+      <c r="C23">
+        <v>20.61</v>
+      </c>
+      <c r="D23">
+        <v>-10.64</v>
+      </c>
+      <c r="E23">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>47.85</v>
+      </c>
+      <c r="C24">
+        <v>20.34</v>
+      </c>
+      <c r="D24">
+        <v>-9.93</v>
+      </c>
+      <c r="E24">
+        <v>9.539999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>36.99</v>
+      </c>
+      <c r="C25">
+        <v>19.41</v>
+      </c>
+      <c r="D25">
+        <v>-10.21</v>
+      </c>
+      <c r="E25">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>60.74</v>
+      </c>
+      <c r="C26">
+        <v>27.72</v>
+      </c>
+      <c r="D26">
+        <v>-10.81</v>
+      </c>
+      <c r="E26">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>51.61</v>
+      </c>
+      <c r="C27">
+        <v>23.81</v>
+      </c>
+      <c r="D27">
+        <v>-10.08</v>
+      </c>
+      <c r="E27">
+        <v>9.529999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>52.87</v>
+      </c>
+      <c r="C28">
+        <v>20.22</v>
+      </c>
+      <c r="D28">
+        <v>-10.01</v>
+      </c>
+      <c r="E28">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>50.12</v>
+      </c>
+      <c r="C29">
+        <v>21.69</v>
+      </c>
+      <c r="D29">
+        <v>-11.35</v>
+      </c>
+      <c r="E29">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>63.53</v>
+      </c>
+      <c r="C30">
+        <v>15.62</v>
+      </c>
+      <c r="D30">
+        <v>-10.29</v>
+      </c>
+      <c r="E30">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>53.78</v>
+      </c>
+      <c r="C31">
+        <v>14.29</v>
+      </c>
+      <c r="D31">
+        <v>-10.09</v>
+      </c>
+      <c r="E31">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>59.85</v>
+      </c>
+      <c r="C32">
+        <v>23.23</v>
+      </c>
+      <c r="D32">
+        <v>-10.47</v>
+      </c>
+      <c r="E32">
+        <v>9.710000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>57.09</v>
+      </c>
+      <c r="C33">
+        <v>20.57</v>
+      </c>
+      <c r="D33">
+        <v>-10.03</v>
+      </c>
+      <c r="E33">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>52.12</v>
+      </c>
+      <c r="C34">
+        <v>24.94</v>
+      </c>
+      <c r="D34">
+        <v>-10.33</v>
+      </c>
+      <c r="E34">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>53.19</v>
+      </c>
+      <c r="C35">
+        <v>22.12</v>
+      </c>
+      <c r="D35">
+        <v>-10.02</v>
+      </c>
+      <c r="E35">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>52.82</v>
+      </c>
+      <c r="C36">
+        <v>20.43</v>
+      </c>
+      <c r="D36">
+        <v>-10.66</v>
+      </c>
+      <c r="E36">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>63.79</v>
+      </c>
+      <c r="C37">
+        <v>21.61</v>
+      </c>
+      <c r="D37">
+        <v>-10.58</v>
+      </c>
+      <c r="E37">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>55.58</v>
+      </c>
+      <c r="C38">
+        <v>20.33</v>
+      </c>
+      <c r="D38">
+        <v>-9.76</v>
+      </c>
+      <c r="E38">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>53.77</v>
+      </c>
+      <c r="C39">
+        <v>24.4</v>
+      </c>
+      <c r="D39">
+        <v>-10.03</v>
+      </c>
+      <c r="E39">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>58.77</v>
+      </c>
+      <c r="C40">
+        <v>19.91</v>
+      </c>
+      <c r="D40">
+        <v>-10.24</v>
+      </c>
+      <c r="E40">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>58.84</v>
+      </c>
+      <c r="C41">
+        <v>25.89</v>
+      </c>
+      <c r="D41">
+        <v>-9.720000000000001</v>
+      </c>
+      <c r="E41">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>46.42</v>
+      </c>
+      <c r="C42">
+        <v>21.76</v>
+      </c>
+      <c r="D42">
+        <v>-9.949999999999999</v>
+      </c>
+      <c r="E42">
+        <v>9.550000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>47.54</v>
+      </c>
+      <c r="C43">
+        <v>25.23</v>
+      </c>
+      <c r="D43">
+        <v>-9.98</v>
+      </c>
+      <c r="E43">
+        <v>9.779999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>45.17</v>
+      </c>
+      <c r="C44">
+        <v>27.03</v>
+      </c>
+      <c r="D44">
+        <v>-10.03</v>
+      </c>
+      <c r="E44">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>45.59</v>
+      </c>
+      <c r="C45">
+        <v>30.22</v>
+      </c>
+      <c r="D45">
+        <v>-10.57</v>
+      </c>
+      <c r="E45">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>56.83</v>
+      </c>
+      <c r="C46">
+        <v>19.64</v>
+      </c>
+      <c r="D46">
+        <v>-9.92</v>
+      </c>
+      <c r="E46">
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>57.14</v>
+      </c>
+      <c r="C47">
+        <v>19.02</v>
+      </c>
+      <c r="D47">
+        <v>-10.43</v>
+      </c>
+      <c r="E47">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>58.51</v>
+      </c>
+      <c r="C48">
+        <v>17.38</v>
+      </c>
+      <c r="D48">
+        <v>-10.48</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>52.61</v>
+      </c>
+      <c r="C49">
+        <v>19.13</v>
+      </c>
+      <c r="D49">
+        <v>-10.71</v>
+      </c>
+      <c r="E49">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>53.76</v>
+      </c>
+      <c r="C50">
+        <v>20.9</v>
+      </c>
+      <c r="D50">
+        <v>-10.56</v>
+      </c>
+      <c r="E50">
+        <v>9.710000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>60.04</v>
+      </c>
+      <c r="C51">
+        <v>20.22</v>
+      </c>
+      <c r="D51">
+        <v>-10.1</v>
+      </c>
+      <c r="E51">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>63.88</v>
+      </c>
+      <c r="C52">
+        <v>20.52</v>
+      </c>
+      <c r="D52">
+        <v>-9.970000000000001</v>
+      </c>
+      <c r="E52">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>66.97</v>
+      </c>
+      <c r="C53">
+        <v>17.53</v>
+      </c>
+      <c r="D53">
+        <v>-10.09</v>
+      </c>
+      <c r="E53">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="C54">
+        <v>17.51</v>
+      </c>
+      <c r="D54">
+        <v>-10.03</v>
+      </c>
+      <c r="E54">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>55.01</v>
+      </c>
+      <c r="C55">
+        <v>17.2</v>
+      </c>
+      <c r="D55">
+        <v>-11.11</v>
+      </c>
+      <c r="E55">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>56.97</v>
+      </c>
+      <c r="C56">
+        <v>17.66</v>
+      </c>
+      <c r="D56">
+        <v>-10.77</v>
+      </c>
+      <c r="E56">
+        <v>10.87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>52.04</v>
+      </c>
+      <c r="C57">
+        <v>20.21</v>
+      </c>
+      <c r="D57">
+        <v>-9.92</v>
+      </c>
+      <c r="E57">
+        <v>9.630000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>67.37</v>
+      </c>
+      <c r="C58">
+        <v>18.02</v>
+      </c>
+      <c r="D58">
+        <v>-10.14</v>
+      </c>
+      <c r="E58">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>55.63</v>
+      </c>
+      <c r="C59">
+        <v>18.2</v>
+      </c>
+      <c r="D59">
+        <v>-10.06</v>
+      </c>
+      <c r="E59">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>44.01</v>
+      </c>
+      <c r="C60">
+        <v>17.37</v>
+      </c>
+      <c r="D60">
+        <v>-10.01</v>
+      </c>
+      <c r="E60">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>42.91</v>
+      </c>
+      <c r="C61">
+        <v>22.13</v>
+      </c>
+      <c r="D61">
+        <v>-9.81</v>
+      </c>
+      <c r="E61">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>44.32</v>
+      </c>
+      <c r="C62">
+        <v>21.02</v>
+      </c>
+      <c r="D62">
+        <v>-10.27</v>
+      </c>
+      <c r="E62">
+        <v>9.640000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>61.39</v>
+      </c>
+      <c r="C63">
+        <v>19.37</v>
+      </c>
+      <c r="D63">
+        <v>-10</v>
+      </c>
+      <c r="E63">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>57.66</v>
+      </c>
+      <c r="C64">
+        <v>18.17</v>
+      </c>
+      <c r="D64">
+        <v>-9.960000000000001</v>
+      </c>
+      <c r="E64">
+        <v>9.859999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>83.65000000000001</v>
+      </c>
+      <c r="C65">
+        <v>19.33</v>
+      </c>
+      <c r="D65">
+        <v>-9.66</v>
+      </c>
+      <c r="E65">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>114.34</v>
+      </c>
+      <c r="C66">
+        <v>18.25</v>
+      </c>
+      <c r="D66">
+        <v>-11.3</v>
+      </c>
+      <c r="E66">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>74.36</v>
+      </c>
+      <c r="C67">
+        <v>17.18</v>
+      </c>
+      <c r="D67">
+        <v>-10.36</v>
+      </c>
+      <c r="E67">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>75.06999999999999</v>
+      </c>
+      <c r="C68">
+        <v>16.79</v>
+      </c>
+      <c r="D68">
+        <v>-10.11</v>
+      </c>
+      <c r="E68">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>66.38</v>
+      </c>
+      <c r="C69">
+        <v>17.13</v>
+      </c>
+      <c r="D69">
+        <v>-10.4</v>
+      </c>
+      <c r="E69">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>75.58</v>
+      </c>
+      <c r="C70">
+        <v>16.76</v>
+      </c>
+      <c r="D70">
+        <v>-11.28</v>
+      </c>
+      <c r="E70">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>73.14</v>
+      </c>
+      <c r="C71">
+        <v>14.93</v>
+      </c>
+      <c r="D71">
+        <v>-10.36</v>
+      </c>
+      <c r="E71">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>58.49</v>
+      </c>
+      <c r="C72">
+        <v>13.48</v>
+      </c>
+      <c r="D72">
+        <v>-9.74</v>
+      </c>
+      <c r="E72">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>77.52</v>
+      </c>
+      <c r="C73">
+        <v>13.71</v>
+      </c>
+      <c r="D73">
+        <v>-10.7</v>
+      </c>
+      <c r="E73">
+        <v>11.81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>74.13</v>
+      </c>
+      <c r="C74">
+        <v>13.81</v>
+      </c>
+      <c r="D74">
+        <v>-11.16</v>
+      </c>
+      <c r="E74">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>85.75</v>
+      </c>
+      <c r="C75">
+        <v>14.05</v>
+      </c>
+      <c r="D75">
+        <v>-11.12</v>
+      </c>
+      <c r="E75">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>82.95</v>
+      </c>
+      <c r="C76">
+        <v>13.18</v>
+      </c>
+      <c r="D76">
+        <v>-10.23</v>
+      </c>
+      <c r="E76">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C77">
+        <v>14.07</v>
+      </c>
+      <c r="D77">
+        <v>-10.33</v>
+      </c>
+      <c r="E77">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>82.69</v>
+      </c>
+      <c r="C78">
+        <v>13.64</v>
+      </c>
+      <c r="D78">
+        <v>-10.77</v>
+      </c>
+      <c r="E78">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>83.48999999999999</v>
+      </c>
+      <c r="C79">
+        <v>15.9</v>
+      </c>
+      <c r="D79">
+        <v>-10.49</v>
+      </c>
+      <c r="E79">
+        <v>9.279999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>70.48999999999999</v>
+      </c>
+      <c r="C80">
+        <v>15.18</v>
+      </c>
+      <c r="D80">
+        <v>-11.71</v>
+      </c>
+      <c r="E80">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>67.54000000000001</v>
+      </c>
+      <c r="C81">
+        <v>17.29</v>
+      </c>
+      <c r="D81">
+        <v>-10.24</v>
+      </c>
+      <c r="E81">
+        <v>9.779999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>78.58</v>
+      </c>
+      <c r="C82">
+        <v>15.11</v>
+      </c>
+      <c r="D82">
+        <v>-13.47</v>
+      </c>
+      <c r="E82">
+        <v>9.720000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>65.31</v>
+      </c>
+      <c r="C83">
+        <v>17.18</v>
+      </c>
+      <c r="D83">
+        <v>-10.78</v>
+      </c>
+      <c r="E83">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>76.56999999999999</v>
+      </c>
+      <c r="C84">
+        <v>18.29</v>
+      </c>
+      <c r="D84">
+        <v>-10.34</v>
+      </c>
+      <c r="E84">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>97</v>
+      </c>
+      <c r="C85">
+        <v>15.94</v>
+      </c>
+      <c r="D85">
+        <v>-9.99</v>
+      </c>
+      <c r="E85">
+        <v>9.779999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="C86">
+        <v>15.56</v>
+      </c>
+      <c r="D86">
+        <v>-10.35</v>
+      </c>
+      <c r="E86">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>87.54000000000001</v>
+      </c>
+      <c r="C87">
+        <v>15.92</v>
+      </c>
+      <c r="D87">
+        <v>-10.08</v>
+      </c>
+      <c r="E87">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>79.09</v>
+      </c>
+      <c r="C88">
+        <v>14.61</v>
+      </c>
+      <c r="D88">
+        <v>-14.14</v>
+      </c>
+      <c r="E88">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="C89">
+        <v>15.24</v>
+      </c>
+      <c r="D89">
+        <v>-10.35</v>
+      </c>
+      <c r="E89">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>99.59</v>
+      </c>
+      <c r="C90">
+        <v>17.1</v>
+      </c>
+      <c r="D90">
+        <v>-10.42</v>
+      </c>
+      <c r="E90">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>109.91</v>
+      </c>
+      <c r="C91">
+        <v>19.49</v>
+      </c>
+      <c r="D91">
+        <v>-10.84</v>
+      </c>
+      <c r="E91">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>82.75</v>
+      </c>
+      <c r="C92">
+        <v>18.59</v>
+      </c>
+      <c r="D92">
+        <v>-10.5</v>
+      </c>
+      <c r="E92">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="C93">
+        <v>15.7</v>
+      </c>
+      <c r="D93">
+        <v>-10.74</v>
+      </c>
+      <c r="E93">
+        <v>9.460000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>74.22</v>
+      </c>
+      <c r="C94">
+        <v>18.81</v>
+      </c>
+      <c r="D94">
+        <v>-10.37</v>
+      </c>
+      <c r="E94">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>78.23</v>
+      </c>
+      <c r="C95">
+        <v>15.88</v>
+      </c>
+      <c r="D95">
+        <v>-10.39</v>
+      </c>
+      <c r="E95">
+        <v>9.619999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>64.55</v>
+      </c>
+      <c r="C96">
+        <v>15.55</v>
+      </c>
+      <c r="D96">
+        <v>-10.67</v>
+      </c>
+      <c r="E96">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>61.25</v>
+      </c>
+      <c r="C97">
+        <v>17.59</v>
+      </c>
+      <c r="D97">
+        <v>-11.33</v>
+      </c>
+      <c r="E97">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="C98">
+        <v>16.39</v>
+      </c>
+      <c r="D98">
+        <v>-11.23</v>
+      </c>
+      <c r="E98">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>71.83</v>
+      </c>
+      <c r="C99">
+        <v>19.61</v>
+      </c>
+      <c r="D99">
+        <v>-10.52</v>
+      </c>
+      <c r="E99">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>63.14</v>
+      </c>
+      <c r="C100">
+        <v>17.53</v>
+      </c>
+      <c r="D100">
+        <v>-11.31</v>
+      </c>
+      <c r="E100">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>70.34999999999999</v>
+      </c>
+      <c r="C101">
+        <v>17.55</v>
+      </c>
+      <c r="D101">
+        <v>-10.78</v>
+      </c>
+      <c r="E101">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>67.84</v>
+      </c>
+      <c r="C102">
+        <v>16.78</v>
+      </c>
+      <c r="D102">
+        <v>-10.44</v>
+      </c>
+      <c r="E102">
+        <v>12.7</v>
       </c>
     </row>
   </sheetData>
